--- a/data/MisInfoText/Analysis_output/news_and_blog/MisInfoText_news_and_blog_POS_frequency.xlsx
+++ b/data/MisInfoText/Analysis_output/news_and_blog/MisInfoText_news_and_blog_POS_frequency.xlsx
@@ -7,26 +7,25 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2008" sheetId="1" r:id="rId1"/>
-    <sheet name="2009" sheetId="2" r:id="rId2"/>
-    <sheet name="2010" sheetId="3" r:id="rId3"/>
-    <sheet name="2011" sheetId="4" r:id="rId4"/>
-    <sheet name="2012" sheetId="5" r:id="rId5"/>
-    <sheet name="2013" sheetId="6" r:id="rId6"/>
-    <sheet name="2014" sheetId="7" r:id="rId7"/>
-    <sheet name="2015" sheetId="8" r:id="rId8"/>
-    <sheet name="2016" sheetId="9" r:id="rId9"/>
-    <sheet name="2017" sheetId="10" r:id="rId10"/>
-    <sheet name="2018" sheetId="11" r:id="rId11"/>
-    <sheet name="counts" sheetId="12" r:id="rId12"/>
-    <sheet name="proportions" sheetId="13" r:id="rId13"/>
+    <sheet name="2009" sheetId="1" r:id="rId1"/>
+    <sheet name="2010" sheetId="2" r:id="rId2"/>
+    <sheet name="2011" sheetId="3" r:id="rId3"/>
+    <sheet name="2012" sheetId="4" r:id="rId4"/>
+    <sheet name="2013" sheetId="5" r:id="rId5"/>
+    <sheet name="2014" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="7" r:id="rId7"/>
+    <sheet name="2016" sheetId="8" r:id="rId8"/>
+    <sheet name="2017" sheetId="9" r:id="rId9"/>
+    <sheet name="2018" sheetId="10" r:id="rId10"/>
+    <sheet name="counts" sheetId="11" r:id="rId11"/>
+    <sheet name="proportions" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="22">
   <si>
     <t>count</t>
   </si>
@@ -49,16 +48,16 @@
     <t>ADP</t>
   </si>
   <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>ADJ</t>
+  </si>
+  <si>
     <t>PROPN</t>
   </si>
   <si>
-    <t>DET</t>
-  </si>
-  <si>
     <t>PRON</t>
-  </si>
-  <si>
-    <t>ADJ</t>
   </si>
   <si>
     <t>AUX</t>
@@ -73,13 +72,13 @@
     <t>CCONJ</t>
   </si>
   <si>
-    <t>SPACE</t>
+    <t>SCONJ</t>
   </si>
   <si>
     <t>NUM</t>
   </si>
   <si>
-    <t>SCONJ</t>
+    <t>SPACE</t>
   </si>
   <si>
     <t>SYM</t>
@@ -449,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>605</v>
+        <v>1652</v>
       </c>
       <c r="C2">
-        <v>0.1712425700537787</v>
+        <v>0.1880264056453449</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>381</v>
+        <v>1085</v>
       </c>
       <c r="C3">
-        <v>0.10784036229833</v>
+        <v>0.123491918961985</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>366</v>
+        <v>911</v>
       </c>
       <c r="C4">
-        <v>0.1035946787432777</v>
+        <v>0.1036876849533349</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,10 +503,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>337</v>
+        <v>847</v>
       </c>
       <c r="C5">
-        <v>0.09538635720350977</v>
+        <v>0.09640336899613021</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>328</v>
+        <v>759</v>
       </c>
       <c r="C6">
-        <v>0.09283894707047835</v>
+        <v>0.08638743455497382</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>267</v>
+        <v>663</v>
       </c>
       <c r="C7">
-        <v>0.07557316727993207</v>
+        <v>0.07546096061916685</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>252</v>
+        <v>636</v>
       </c>
       <c r="C8">
-        <v>0.07132748372487971</v>
+        <v>0.07238788982472115</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>247</v>
+        <v>504</v>
       </c>
       <c r="C9">
-        <v>0.06991225587319558</v>
+        <v>0.05736398816298657</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,10 +558,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>184</v>
+        <v>463</v>
       </c>
       <c r="C10">
-        <v>0.05208038494197566</v>
+        <v>0.05269747325290235</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,10 +569,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="C11">
-        <v>0.03792810642513444</v>
+        <v>0.03790120646483041</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,10 +580,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="C12">
-        <v>0.03113501273705066</v>
+        <v>0.02913726382881858</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -592,10 +591,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="C13">
-        <v>0.02887064817435607</v>
+        <v>0.02503983610289096</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -603,10 +602,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="C14">
-        <v>0.02292669119728276</v>
+        <v>0.02151149556111996</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -614,10 +613,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C15">
-        <v>0.02179450891593547</v>
+        <v>0.01536535397222855</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -625,10 +624,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C16">
-        <v>0.01471836965751486</v>
+        <v>0.01138174368313226</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -636,10 +635,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0.002547410133031418</v>
+        <v>0.001707261552469838</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -647,10 +646,21 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0.0002830455703368242</v>
+        <v>0.001138174368313226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0.0009105394946505805</v>
       </c>
     </row>
   </sheetData>
@@ -682,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>11005</v>
+        <v>7748</v>
       </c>
       <c r="C2">
-        <v>0.1705355482551292</v>
+        <v>0.1702445562611237</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -693,32 +703,32 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7415</v>
+        <v>5079</v>
       </c>
       <c r="C3">
-        <v>0.1149042335585446</v>
+        <v>0.1115993935532069</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>6973</v>
+        <v>5017</v>
       </c>
       <c r="C4">
-        <v>0.1080549184900514</v>
+        <v>0.1102370855397596</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>6480</v>
+        <v>4850</v>
       </c>
       <c r="C5">
-        <v>0.1004152978367322</v>
+        <v>0.1065676429874096</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -726,43 +736,43 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6265</v>
+        <v>4725</v>
       </c>
       <c r="C6">
-        <v>0.09708361743011219</v>
+        <v>0.1038210542506207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>5301</v>
+        <v>3666</v>
       </c>
       <c r="C7">
-        <v>0.0821452922581045</v>
+        <v>0.0805519544725451</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>4444</v>
+        <v>3030</v>
       </c>
       <c r="C8">
-        <v>0.06886505919543792</v>
+        <v>0.06657731097976313</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3738</v>
+        <v>2717</v>
       </c>
       <c r="C9">
-        <v>0.0579247505113742</v>
+        <v>0.05969985278284371</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -770,10 +780,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3543</v>
+        <v>2326</v>
       </c>
       <c r="C10">
-        <v>0.05490299386350957</v>
+        <v>0.05110852321416801</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -781,10 +791,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2356</v>
+        <v>1743</v>
       </c>
       <c r="C11">
-        <v>0.03650901878137978</v>
+        <v>0.03829843334578453</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -792,10 +802,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1812</v>
+        <v>1194</v>
       </c>
       <c r="C12">
-        <v>0.02807909254323436</v>
+        <v>0.02623541561380765</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -803,21 +813,21 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1723</v>
+        <v>1155</v>
       </c>
       <c r="C13">
-        <v>0.02669993181677307</v>
+        <v>0.02537847992792951</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1363</v>
+        <v>902</v>
       </c>
       <c r="C14">
-        <v>0.02112130415917684</v>
+        <v>0.01981938432466876</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -825,21 +835,21 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1076</v>
+        <v>765</v>
       </c>
       <c r="C15">
-        <v>0.01667389822103763</v>
+        <v>0.01680912306914812</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>779</v>
+        <v>451</v>
       </c>
       <c r="C16">
-        <v>0.01207153040352073</v>
+        <v>0.009909692162334382</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -847,10 +857,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="C17">
-        <v>0.002618855761482675</v>
+        <v>0.001669925951967656</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -858,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.0007128246451372963</v>
+        <v>0.0009228538155610732</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -869,10 +879,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>0.0006818322692617616</v>
+        <v>0.0005493177473577817</v>
       </c>
     </row>
   </sheetData>
@@ -882,229 +892,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>7748</v>
-      </c>
-      <c r="C2">
-        <v>0.1702445562611237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>5079</v>
-      </c>
-      <c r="C3">
-        <v>0.1115993935532069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5017</v>
-      </c>
-      <c r="C4">
-        <v>0.1102370855397596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4850</v>
-      </c>
-      <c r="C5">
-        <v>0.1065676429874096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>4725</v>
-      </c>
-      <c r="C6">
-        <v>0.1038210542506207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>3666</v>
-      </c>
-      <c r="C7">
-        <v>0.0805519544725451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>3030</v>
-      </c>
-      <c r="C8">
-        <v>0.06657731097976313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>2717</v>
-      </c>
-      <c r="C9">
-        <v>0.05969985278284371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>2326</v>
-      </c>
-      <c r="C10">
-        <v>0.05110852321416801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1743</v>
-      </c>
-      <c r="C11">
-        <v>0.03829843334578453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1194</v>
-      </c>
-      <c r="C12">
-        <v>0.02623541561380765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1155</v>
-      </c>
-      <c r="C13">
-        <v>0.02537847992792951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>902</v>
-      </c>
-      <c r="C14">
-        <v>0.01981938432466876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>765</v>
-      </c>
-      <c r="C15">
-        <v>0.01680912306914812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>451</v>
-      </c>
-      <c r="C16">
-        <v>0.009909692162334382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>76</v>
-      </c>
-      <c r="C17">
-        <v>0.001669925951967656</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>0.0009228538155610732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>0.0005493177473577817</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1171,527 +959,530 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B2">
-        <v>605</v>
+        <v>1652</v>
       </c>
       <c r="C2">
-        <v>381</v>
+        <v>1085</v>
       </c>
       <c r="D2">
-        <v>366</v>
+        <v>911</v>
       </c>
       <c r="E2">
-        <v>337</v>
+        <v>847</v>
       </c>
       <c r="F2">
-        <v>328</v>
+        <v>759</v>
       </c>
       <c r="G2">
-        <v>267</v>
+        <v>663</v>
       </c>
       <c r="H2">
-        <v>252</v>
+        <v>636</v>
       </c>
       <c r="I2">
-        <v>247</v>
+        <v>504</v>
       </c>
       <c r="J2">
-        <v>184</v>
+        <v>463</v>
       </c>
       <c r="K2">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="L2">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="M2">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="N2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="O2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="P2">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="Q2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B3">
-        <v>1652</v>
+        <v>1781</v>
       </c>
       <c r="C3">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="D3">
-        <v>911</v>
+        <v>1065</v>
       </c>
       <c r="E3">
-        <v>847</v>
+        <v>962</v>
       </c>
       <c r="F3">
-        <v>636</v>
+        <v>801</v>
       </c>
       <c r="G3">
-        <v>759</v>
+        <v>681</v>
       </c>
       <c r="H3">
-        <v>504</v>
+        <v>929</v>
       </c>
       <c r="I3">
-        <v>663</v>
+        <v>586</v>
       </c>
       <c r="J3">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="K3">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="L3">
+        <v>306</v>
+      </c>
+      <c r="M3">
         <v>256</v>
       </c>
-      <c r="M3">
-        <v>220</v>
-      </c>
       <c r="N3">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="O3">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="P3">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B4">
-        <v>1781</v>
+        <v>3484</v>
       </c>
       <c r="C4">
-        <v>1067</v>
+        <v>1828</v>
       </c>
       <c r="D4">
-        <v>1065</v>
+        <v>2034</v>
       </c>
       <c r="E4">
-        <v>962</v>
+        <v>1799</v>
       </c>
       <c r="F4">
-        <v>929</v>
+        <v>1462</v>
       </c>
       <c r="G4">
-        <v>801</v>
+        <v>1228</v>
       </c>
       <c r="H4">
-        <v>586</v>
+        <v>1629</v>
       </c>
       <c r="I4">
-        <v>681</v>
+        <v>1134</v>
       </c>
       <c r="J4">
-        <v>558</v>
+        <v>957</v>
       </c>
       <c r="K4">
-        <v>361</v>
+        <v>578</v>
       </c>
       <c r="L4">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="M4">
-        <v>256</v>
+        <v>481</v>
       </c>
       <c r="N4">
-        <v>69</v>
+        <v>335</v>
       </c>
       <c r="O4">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="P4">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="Q4">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B5">
-        <v>3484</v>
+        <v>2390</v>
       </c>
       <c r="C5">
-        <v>1828</v>
+        <v>1381</v>
       </c>
       <c r="D5">
-        <v>2034</v>
+        <v>1371</v>
       </c>
       <c r="E5">
-        <v>1799</v>
+        <v>1228</v>
       </c>
       <c r="F5">
-        <v>1629</v>
+        <v>958</v>
       </c>
       <c r="G5">
-        <v>1462</v>
+        <v>878</v>
       </c>
       <c r="H5">
-        <v>1134</v>
+        <v>1218</v>
       </c>
       <c r="I5">
-        <v>1228</v>
+        <v>643</v>
       </c>
       <c r="J5">
-        <v>957</v>
+        <v>634</v>
       </c>
       <c r="K5">
-        <v>578</v>
+        <v>388</v>
       </c>
       <c r="L5">
-        <v>514</v>
+        <v>339</v>
       </c>
       <c r="M5">
-        <v>481</v>
+        <v>337</v>
       </c>
       <c r="N5">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="O5">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P5">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="Q5">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="R5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B6">
-        <v>2390</v>
+        <v>5757</v>
       </c>
       <c r="C6">
-        <v>1381</v>
+        <v>3387</v>
       </c>
       <c r="D6">
-        <v>1371</v>
+        <v>3560</v>
       </c>
       <c r="E6">
-        <v>1228</v>
+        <v>2928</v>
       </c>
       <c r="F6">
-        <v>1218</v>
+        <v>2629</v>
       </c>
       <c r="G6">
-        <v>958</v>
+        <v>2163</v>
       </c>
       <c r="H6">
-        <v>643</v>
+        <v>2197</v>
       </c>
       <c r="I6">
-        <v>878</v>
+        <v>2317</v>
       </c>
       <c r="J6">
-        <v>634</v>
+        <v>1898</v>
       </c>
       <c r="K6">
-        <v>388</v>
+        <v>1181</v>
       </c>
       <c r="L6">
-        <v>339</v>
+        <v>1018</v>
       </c>
       <c r="M6">
-        <v>337</v>
+        <v>996</v>
       </c>
       <c r="N6">
-        <v>38</v>
+        <v>671</v>
       </c>
       <c r="O6">
-        <v>274</v>
+        <v>434</v>
       </c>
       <c r="P6">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="Q6">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S6">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>5757</v>
+        <v>1918</v>
       </c>
       <c r="C7">
-        <v>3387</v>
+        <v>1273</v>
       </c>
       <c r="D7">
-        <v>3560</v>
+        <v>1194</v>
       </c>
       <c r="E7">
-        <v>2928</v>
+        <v>1118</v>
       </c>
       <c r="F7">
-        <v>2197</v>
+        <v>880</v>
       </c>
       <c r="G7">
-        <v>2629</v>
+        <v>660</v>
       </c>
       <c r="H7">
-        <v>2317</v>
+        <v>1184</v>
       </c>
       <c r="I7">
-        <v>2163</v>
+        <v>568</v>
       </c>
       <c r="J7">
-        <v>1898</v>
+        <v>547</v>
       </c>
       <c r="K7">
-        <v>1181</v>
+        <v>334</v>
       </c>
       <c r="L7">
-        <v>1018</v>
+        <v>324</v>
       </c>
       <c r="M7">
-        <v>996</v>
+        <v>318</v>
       </c>
       <c r="N7">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="O7">
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="P7">
-        <v>671</v>
+        <v>151</v>
       </c>
       <c r="Q7">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="R7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B8">
-        <v>1918</v>
+        <v>3592</v>
       </c>
       <c r="C8">
-        <v>1273</v>
+        <v>2244</v>
       </c>
       <c r="D8">
-        <v>1194</v>
+        <v>2151</v>
       </c>
       <c r="E8">
-        <v>1118</v>
+        <v>2019</v>
       </c>
       <c r="F8">
-        <v>1184</v>
+        <v>1755</v>
       </c>
       <c r="G8">
-        <v>880</v>
+        <v>1451</v>
       </c>
       <c r="H8">
-        <v>568</v>
+        <v>1648</v>
       </c>
       <c r="I8">
-        <v>660</v>
+        <v>1343</v>
       </c>
       <c r="J8">
-        <v>547</v>
+        <v>1135</v>
       </c>
       <c r="K8">
-        <v>334</v>
+        <v>691</v>
       </c>
       <c r="L8">
-        <v>324</v>
+        <v>622</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="N8">
-        <v>151</v>
+        <v>404</v>
       </c>
       <c r="O8">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="P8">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S8">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9">
-        <v>814</v>
+        <v>5858</v>
       </c>
       <c r="C9">
-        <v>440</v>
+        <v>3704</v>
       </c>
       <c r="D9">
-        <v>515</v>
+        <v>3737</v>
       </c>
       <c r="E9">
-        <v>412</v>
+        <v>3359</v>
       </c>
       <c r="F9">
-        <v>258</v>
+        <v>2676</v>
       </c>
       <c r="G9">
-        <v>330</v>
+        <v>2177</v>
       </c>
       <c r="H9">
-        <v>373</v>
+        <v>2732</v>
       </c>
       <c r="I9">
-        <v>328</v>
+        <v>2183</v>
       </c>
       <c r="J9">
-        <v>292</v>
+        <v>1647</v>
       </c>
       <c r="K9">
-        <v>151</v>
+        <v>1193</v>
       </c>
       <c r="L9">
-        <v>144</v>
+        <v>848</v>
       </c>
       <c r="M9">
-        <v>142</v>
+        <v>910</v>
       </c>
       <c r="N9">
-        <v>18</v>
+        <v>696</v>
       </c>
       <c r="O9">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="P9">
-        <v>111</v>
+        <v>351</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10">
-        <v>5858</v>
+        <v>11005</v>
       </c>
       <c r="C10">
-        <v>3704</v>
+        <v>6973</v>
       </c>
       <c r="D10">
-        <v>3737</v>
+        <v>7415</v>
       </c>
       <c r="E10">
-        <v>3359</v>
+        <v>6265</v>
       </c>
       <c r="F10">
-        <v>2732</v>
+        <v>5301</v>
       </c>
       <c r="G10">
-        <v>2676</v>
+        <v>3738</v>
       </c>
       <c r="H10">
-        <v>2183</v>
+        <v>6480</v>
       </c>
       <c r="I10">
-        <v>2177</v>
+        <v>4444</v>
       </c>
       <c r="J10">
-        <v>1647</v>
+        <v>3543</v>
       </c>
       <c r="K10">
-        <v>1193</v>
+        <v>2356</v>
       </c>
       <c r="L10">
-        <v>848</v>
+        <v>1812</v>
       </c>
       <c r="M10">
-        <v>910</v>
+        <v>1723</v>
       </c>
       <c r="N10">
-        <v>351</v>
+        <v>1363</v>
       </c>
       <c r="O10">
-        <v>626</v>
+        <v>1076</v>
       </c>
       <c r="P10">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="Q10">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="R10">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S10">
         <v>44</v>
@@ -1699,119 +1490,60 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B11">
-        <v>11005</v>
+        <v>7748</v>
       </c>
       <c r="C11">
-        <v>6973</v>
+        <v>4850</v>
       </c>
       <c r="D11">
-        <v>7415</v>
+        <v>5079</v>
       </c>
       <c r="E11">
-        <v>6265</v>
+        <v>4725</v>
       </c>
       <c r="F11">
-        <v>6480</v>
+        <v>3666</v>
       </c>
       <c r="G11">
-        <v>5301</v>
+        <v>2717</v>
       </c>
       <c r="H11">
-        <v>4444</v>
+        <v>5017</v>
       </c>
       <c r="I11">
-        <v>3738</v>
+        <v>3030</v>
       </c>
       <c r="J11">
-        <v>3543</v>
+        <v>2326</v>
       </c>
       <c r="K11">
-        <v>2356</v>
+        <v>1743</v>
       </c>
       <c r="L11">
-        <v>1812</v>
+        <v>1194</v>
       </c>
       <c r="M11">
-        <v>1723</v>
+        <v>1155</v>
       </c>
       <c r="N11">
-        <v>779</v>
+        <v>902</v>
       </c>
       <c r="O11">
-        <v>1076</v>
+        <v>765</v>
       </c>
       <c r="P11">
-        <v>1363</v>
+        <v>451</v>
       </c>
       <c r="Q11">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="R11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>7748</v>
-      </c>
-      <c r="C12">
-        <v>4850</v>
-      </c>
-      <c r="D12">
-        <v>5079</v>
-      </c>
-      <c r="E12">
-        <v>4725</v>
-      </c>
-      <c r="F12">
-        <v>5017</v>
-      </c>
-      <c r="G12">
-        <v>3666</v>
-      </c>
-      <c r="H12">
-        <v>3030</v>
-      </c>
-      <c r="I12">
-        <v>2717</v>
-      </c>
-      <c r="J12">
-        <v>2326</v>
-      </c>
-      <c r="K12">
-        <v>1743</v>
-      </c>
-      <c r="L12">
-        <v>1194</v>
-      </c>
-      <c r="M12">
-        <v>1155</v>
-      </c>
-      <c r="N12">
-        <v>451</v>
-      </c>
-      <c r="O12">
-        <v>765</v>
-      </c>
-      <c r="P12">
-        <v>902</v>
-      </c>
-      <c r="Q12">
-        <v>76</v>
-      </c>
-      <c r="R12">
-        <v>42</v>
-      </c>
-      <c r="S12">
         <v>25</v>
       </c>
     </row>
@@ -1820,9 +1552,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1889,647 +1621,591 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B2">
-        <v>0.1712425700537787</v>
+        <v>0.1880264056453449</v>
       </c>
       <c r="C2">
-        <v>0.10784036229833</v>
+        <v>0.123491918961985</v>
       </c>
       <c r="D2">
-        <v>0.1035946787432777</v>
+        <v>0.1036876849533349</v>
       </c>
       <c r="E2">
-        <v>0.09538635720350977</v>
+        <v>0.09640336899613021</v>
       </c>
       <c r="F2">
-        <v>0.09283894707047835</v>
+        <v>0.08638743455497382</v>
       </c>
       <c r="G2">
-        <v>0.07557316727993207</v>
+        <v>0.07546096061916685</v>
       </c>
       <c r="H2">
-        <v>0.07132748372487971</v>
+        <v>0.07238788982472115</v>
       </c>
       <c r="I2">
-        <v>0.06991225587319558</v>
+        <v>0.05736398816298657</v>
       </c>
       <c r="J2">
-        <v>0.05208038494197566</v>
+        <v>0.05269747325290235</v>
       </c>
       <c r="K2">
-        <v>0.03792810642513444</v>
+        <v>0.03790120646483041</v>
       </c>
       <c r="L2">
-        <v>0.03113501273705066</v>
+        <v>0.02913726382881858</v>
       </c>
       <c r="M2">
-        <v>0.02887064817435607</v>
+        <v>0.02503983610289096</v>
       </c>
       <c r="N2">
-        <v>0.02292669119728276</v>
+        <v>0.02151149556111996</v>
       </c>
       <c r="O2">
-        <v>0.02179450891593547</v>
+        <v>0.01536535397222855</v>
       </c>
       <c r="P2">
-        <v>0.01471836965751486</v>
+        <v>0.01138174368313226</v>
       </c>
       <c r="Q2">
-        <v>0.002547410133031418</v>
+        <v>0.001707261552469838</v>
       </c>
       <c r="R2">
-        <v>0.0002830455703368242</v>
+        <v>0.001138174368313226</v>
+      </c>
+      <c r="S2">
+        <v>0.0009105394946505805</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B3">
-        <v>0.1880264056453449</v>
+        <v>0.1806654493812132</v>
       </c>
       <c r="C3">
-        <v>0.123491918961985</v>
+        <v>0.1082369649016028</v>
       </c>
       <c r="D3">
-        <v>0.1036876849533349</v>
+        <v>0.1080340839926963</v>
       </c>
       <c r="E3">
-        <v>0.09640336899613021</v>
+        <v>0.09758571718401299</v>
       </c>
       <c r="F3">
-        <v>0.07238788982472115</v>
+        <v>0.08125380401704199</v>
       </c>
       <c r="G3">
-        <v>0.08638743455497382</v>
+        <v>0.06908094948265368</v>
       </c>
       <c r="H3">
-        <v>0.05736398816298657</v>
+        <v>0.09423818218705619</v>
       </c>
       <c r="I3">
-        <v>0.07546096061916685</v>
+        <v>0.05944410630959627</v>
       </c>
       <c r="J3">
-        <v>0.05269747325290235</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="K3">
-        <v>0.03790120646483041</v>
+        <v>0.03662000405761818</v>
       </c>
       <c r="L3">
-        <v>0.02913726382881858</v>
+        <v>0.0310407790626902</v>
       </c>
       <c r="M3">
-        <v>0.02503983610289096</v>
+        <v>0.0259687563400284</v>
       </c>
       <c r="N3">
-        <v>0.01138174368313226</v>
+        <v>0.02049097179955366</v>
       </c>
       <c r="O3">
-        <v>0.01536535397222855</v>
+        <v>0.01998376952728748</v>
       </c>
       <c r="P3">
-        <v>0.02151149556111996</v>
+        <v>0.00699939135727328</v>
       </c>
       <c r="Q3">
-        <v>0.001707261552469838</v>
+        <v>0.002840332724690607</v>
       </c>
       <c r="R3">
-        <v>0.001138174368313226</v>
+        <v>0.0005072022722661798</v>
       </c>
       <c r="S3">
-        <v>0.0009105394946505805</v>
+        <v>0.0004057618178129438</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B4">
-        <v>0.1806654493812132</v>
+        <v>0.1945281965382468</v>
       </c>
       <c r="C4">
-        <v>0.1082369649016028</v>
+        <v>0.1020658849804578</v>
       </c>
       <c r="D4">
-        <v>0.1080340839926963</v>
+        <v>0.1135678391959799</v>
       </c>
       <c r="E4">
-        <v>0.09758571718401299</v>
+        <v>0.1004466778336125</v>
       </c>
       <c r="F4">
-        <v>0.09423818218705619</v>
+        <v>0.08163037409268566</v>
       </c>
       <c r="G4">
-        <v>0.08125380401704199</v>
+        <v>0.06856504745951982</v>
       </c>
       <c r="H4">
-        <v>0.05944410630959627</v>
+        <v>0.09095477386934674</v>
       </c>
       <c r="I4">
-        <v>0.06908094948265368</v>
+        <v>0.06331658291457286</v>
       </c>
       <c r="J4">
-        <v>0.05660377358490566</v>
+        <v>0.05343383584589615</v>
       </c>
       <c r="K4">
-        <v>0.03662000405761818</v>
+        <v>0.03227247347850363</v>
       </c>
       <c r="L4">
-        <v>0.0310407790626902</v>
+        <v>0.02869905080960357</v>
       </c>
       <c r="M4">
-        <v>0.0259687563400284</v>
+        <v>0.02685650474595198</v>
       </c>
       <c r="N4">
-        <v>0.00699939135727328</v>
+        <v>0.01870463428252373</v>
       </c>
       <c r="O4">
-        <v>0.01998376952728748</v>
+        <v>0.01518704634282524</v>
       </c>
       <c r="P4">
-        <v>0.02049097179955366</v>
+        <v>0.006309324399776661</v>
       </c>
       <c r="Q4">
-        <v>0.002840332724690607</v>
+        <v>0.002010050251256282</v>
       </c>
       <c r="R4">
-        <v>0.0005072022722661798</v>
+        <v>0.0008375209380234506</v>
       </c>
       <c r="S4">
-        <v>0.0004057618178129438</v>
+        <v>0.0006141820212171971</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B5">
-        <v>0.1945281965382468</v>
+        <v>0.1925090616190093</v>
       </c>
       <c r="C5">
-        <v>0.1020658849804578</v>
+        <v>0.1112364075714861</v>
       </c>
       <c r="D5">
-        <v>0.1135678391959799</v>
+        <v>0.1104309303262183</v>
       </c>
       <c r="E5">
-        <v>0.1004466778336125</v>
+        <v>0.09891260571888844</v>
       </c>
       <c r="F5">
-        <v>0.09095477386934674</v>
+        <v>0.07716472009665727</v>
       </c>
       <c r="G5">
-        <v>0.08163037409268566</v>
+        <v>0.07072090213451469</v>
       </c>
       <c r="H5">
-        <v>0.06331658291457286</v>
+        <v>0.09810712847362062</v>
       </c>
       <c r="I5">
-        <v>0.06856504745951982</v>
+        <v>0.0517921868707209</v>
       </c>
       <c r="J5">
-        <v>0.05343383584589615</v>
+        <v>0.05106725734997986</v>
       </c>
       <c r="K5">
-        <v>0.03227247347850363</v>
+        <v>0.03125251711639146</v>
       </c>
       <c r="L5">
-        <v>0.02869905080960357</v>
+        <v>0.02730567861457914</v>
       </c>
       <c r="M5">
-        <v>0.02685650474595198</v>
+        <v>0.02714458316552557</v>
       </c>
       <c r="N5">
-        <v>0.006309324399776661</v>
+        <v>0.01933145388642771</v>
       </c>
       <c r="O5">
-        <v>0.01518704634282524</v>
+        <v>0.0220700765203383</v>
       </c>
       <c r="P5">
-        <v>0.01870463428252373</v>
+        <v>0.003060813532017721</v>
       </c>
       <c r="Q5">
-        <v>0.002010050251256282</v>
+        <v>0.005155054369714055</v>
       </c>
       <c r="R5">
-        <v>0.0008375209380234506</v>
+        <v>0.001610954490535642</v>
       </c>
       <c r="S5">
-        <v>0.0006141820212171971</v>
+        <v>0.00112766814337495</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B6">
-        <v>0.1925090616190093</v>
+        <v>0.1830291854772048</v>
       </c>
       <c r="C6">
-        <v>0.1112364075714861</v>
+        <v>0.1076810580530298</v>
       </c>
       <c r="D6">
-        <v>0.1104309303262183</v>
+        <v>0.1131811534304063</v>
       </c>
       <c r="E6">
-        <v>0.09891260571888844</v>
+        <v>0.09308831945062632</v>
       </c>
       <c r="F6">
-        <v>0.09810712847362062</v>
+        <v>0.08358237426082533</v>
       </c>
       <c r="G6">
-        <v>0.07716472009665727</v>
+        <v>0.06876708844662047</v>
       </c>
       <c r="H6">
-        <v>0.0517921868707209</v>
+        <v>0.0698480320467985</v>
       </c>
       <c r="I6">
-        <v>0.07072090213451469</v>
+        <v>0.07366312710625039</v>
       </c>
       <c r="J6">
-        <v>0.05106725734997986</v>
+        <v>0.06034208685699752</v>
       </c>
       <c r="K6">
-        <v>0.03125251711639146</v>
+        <v>0.03754689387677243</v>
       </c>
       <c r="L6">
-        <v>0.02730567861457914</v>
+        <v>0.0323647230876836</v>
       </c>
       <c r="M6">
-        <v>0.02714458316552557</v>
+        <v>0.03166528899345075</v>
       </c>
       <c r="N6">
-        <v>0.003060813532017721</v>
+        <v>0.02133273987410186</v>
       </c>
       <c r="O6">
-        <v>0.0220700765203383</v>
+        <v>0.01379792713168436</v>
       </c>
       <c r="P6">
-        <v>0.01933145388642771</v>
+        <v>0.006930756024670948</v>
       </c>
       <c r="Q6">
-        <v>0.005155054369714055</v>
+        <v>0.001780377694410886</v>
       </c>
       <c r="R6">
-        <v>0.001610954490535642</v>
+        <v>0.0005722642589177847</v>
       </c>
       <c r="S6">
-        <v>0.00112766814337495</v>
+        <v>0.0008266039295479113</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>0.1830291854772048</v>
+        <v>0.1751758151429354</v>
       </c>
       <c r="C7">
-        <v>0.1076810580530298</v>
+        <v>0.116266325691844</v>
       </c>
       <c r="D7">
-        <v>0.1131811534304063</v>
+        <v>0.1090510548908576</v>
       </c>
       <c r="E7">
-        <v>0.09308831945062632</v>
+        <v>0.1021097817152251</v>
       </c>
       <c r="F7">
-        <v>0.0698480320467985</v>
+        <v>0.08037263677048133</v>
       </c>
       <c r="G7">
-        <v>0.08358237426082533</v>
+        <v>0.06027947757786099</v>
       </c>
       <c r="H7">
-        <v>0.07366312710625039</v>
+        <v>0.1081377294730112</v>
       </c>
       <c r="I7">
-        <v>0.06876708844662047</v>
+        <v>0.05187688373367431</v>
       </c>
       <c r="J7">
-        <v>0.06034208685699752</v>
+        <v>0.04995890035619691</v>
       </c>
       <c r="K7">
-        <v>0.03754689387677243</v>
+        <v>0.03050506895606905</v>
       </c>
       <c r="L7">
-        <v>0.0323647230876836</v>
+        <v>0.02959174353822267</v>
       </c>
       <c r="M7">
-        <v>0.03166528899345075</v>
+        <v>0.02904374828751484</v>
       </c>
       <c r="N7">
-        <v>0.006930756024670948</v>
+        <v>0.01634852497945018</v>
       </c>
       <c r="O7">
-        <v>0.01379792713168436</v>
+        <v>0.02301580052972874</v>
       </c>
       <c r="P7">
-        <v>0.02133273987410186</v>
+        <v>0.01379121380948032</v>
       </c>
       <c r="Q7">
-        <v>0.001780377694410886</v>
+        <v>0.001643985752123482</v>
       </c>
       <c r="R7">
-        <v>0.0005722642589177847</v>
+        <v>0.0007306603342771029</v>
       </c>
       <c r="S7">
-        <v>0.0008266039295479113</v>
+        <v>0.002100648461046671</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B8">
-        <v>0.1751758151429354</v>
+        <v>0.1765891549088049</v>
       </c>
       <c r="C8">
-        <v>0.116266325691844</v>
+        <v>0.1103190600265474</v>
       </c>
       <c r="D8">
-        <v>0.1090510548908576</v>
+        <v>0.1057470134211691</v>
       </c>
       <c r="E8">
-        <v>0.1021097817152251</v>
+        <v>0.09925765694901922</v>
       </c>
       <c r="F8">
-        <v>0.1081377294730112</v>
+        <v>0.08627894400471953</v>
       </c>
       <c r="G8">
-        <v>0.08037263677048133</v>
+        <v>0.07133375940219261</v>
       </c>
       <c r="H8">
-        <v>0.05187688373367431</v>
+        <v>0.0810186323189617</v>
       </c>
       <c r="I8">
-        <v>0.06027947757786099</v>
+        <v>0.06602428592497911</v>
       </c>
       <c r="J8">
-        <v>0.04995890035619691</v>
+        <v>0.05579863330219753</v>
       </c>
       <c r="K8">
-        <v>0.03050506895606905</v>
+        <v>0.03397079789587532</v>
       </c>
       <c r="L8">
-        <v>0.02959174353822267</v>
+        <v>0.03057863428543336</v>
       </c>
       <c r="M8">
-        <v>0.02904374828751484</v>
+        <v>0.03254510594366058</v>
       </c>
       <c r="N8">
-        <v>0.01379121380948032</v>
+        <v>0.01986136374809498</v>
       </c>
       <c r="O8">
-        <v>0.02301580052972874</v>
+        <v>0.01440440489651443</v>
       </c>
       <c r="P8">
-        <v>0.01634852497945018</v>
+        <v>0.01322452190157809</v>
       </c>
       <c r="Q8">
-        <v>0.001643985752123482</v>
+        <v>0.001573177326581781</v>
       </c>
       <c r="R8">
-        <v>0.0007306603342771029</v>
+        <v>0.0006882650803795291</v>
       </c>
       <c r="S8">
-        <v>0.002100648461046671</v>
+        <v>0.0007865886632908903</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9">
-        <v>0.1856751824817518</v>
+        <v>0.1783745927346914</v>
       </c>
       <c r="C9">
-        <v>0.1003649635036496</v>
+        <v>0.1127858469595932</v>
       </c>
       <c r="D9">
-        <v>0.1174726277372263</v>
+        <v>0.1137906884686824</v>
       </c>
       <c r="E9">
-        <v>0.09397810218978102</v>
+        <v>0.1022806857282056</v>
       </c>
       <c r="F9">
-        <v>0.05885036496350365</v>
+        <v>0.08148351146432813</v>
       </c>
       <c r="G9">
-        <v>0.07527372262773722</v>
+        <v>0.0662890898571907</v>
       </c>
       <c r="H9">
-        <v>0.08508211678832117</v>
+        <v>0.08318869705550988</v>
       </c>
       <c r="I9">
-        <v>0.07481751824817519</v>
+        <v>0.06647178831338875</v>
       </c>
       <c r="J9">
-        <v>0.0666058394160584</v>
+        <v>0.05015072622636339</v>
       </c>
       <c r="K9">
-        <v>0.03444343065693431</v>
+        <v>0.03632654304071131</v>
       </c>
       <c r="L9">
-        <v>0.03284671532846715</v>
+        <v>0.02582138180932371</v>
       </c>
       <c r="M9">
-        <v>0.03239051094890511</v>
+        <v>0.02770926585670351</v>
       </c>
       <c r="N9">
-        <v>0.004105839416058394</v>
+        <v>0.02119302091897323</v>
       </c>
       <c r="O9">
-        <v>0.01094890510948905</v>
+        <v>0.01906153892999604</v>
       </c>
       <c r="P9">
-        <v>0.02531934306569343</v>
+        <v>0.01068785968758564</v>
       </c>
       <c r="Q9">
-        <v>0.0006843065693430657</v>
+        <v>0.002283730702475564</v>
       </c>
       <c r="R9">
-        <v>0.0006843065693430657</v>
+        <v>0.0007612435674918547</v>
       </c>
       <c r="S9">
-        <v>0.0004562043795620438</v>
+        <v>0.001339788678785664</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10">
-        <v>0.1783745927346914</v>
+        <v>0.1705355482551292</v>
       </c>
       <c r="C10">
-        <v>0.1127858469595932</v>
+        <v>0.1080549184900514</v>
       </c>
       <c r="D10">
-        <v>0.1137906884686824</v>
+        <v>0.1149042335585446</v>
       </c>
       <c r="E10">
-        <v>0.1022806857282056</v>
+        <v>0.09708361743011219</v>
       </c>
       <c r="F10">
-        <v>0.08318869705550988</v>
+        <v>0.0821452922581045</v>
       </c>
       <c r="G10">
-        <v>0.08148351146432813</v>
+        <v>0.0579247505113742</v>
       </c>
       <c r="H10">
-        <v>0.06647178831338875</v>
+        <v>0.1004152978367322</v>
       </c>
       <c r="I10">
-        <v>0.0662890898571907</v>
+        <v>0.06886505919543792</v>
       </c>
       <c r="J10">
-        <v>0.05015072622636339</v>
+        <v>0.05490299386350957</v>
       </c>
       <c r="K10">
-        <v>0.03632654304071131</v>
+        <v>0.03650901878137978</v>
       </c>
       <c r="L10">
-        <v>0.02582138180932371</v>
+        <v>0.02807909254323436</v>
       </c>
       <c r="M10">
-        <v>0.02770926585670351</v>
+        <v>0.02669993181677307</v>
       </c>
       <c r="N10">
-        <v>0.01068785968758564</v>
+        <v>0.02112130415917684</v>
       </c>
       <c r="O10">
-        <v>0.01906153892999604</v>
+        <v>0.01667389822103763</v>
       </c>
       <c r="P10">
-        <v>0.02119302091897323</v>
+        <v>0.01207153040352073</v>
       </c>
       <c r="Q10">
-        <v>0.002283730702475564</v>
+        <v>0.002618855761482675</v>
       </c>
       <c r="R10">
-        <v>0.0007612435674918547</v>
+        <v>0.0007128246451372963</v>
       </c>
       <c r="S10">
-        <v>0.001339788678785664</v>
+        <v>0.0006818322692617616</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B11">
-        <v>0.1705355482551292</v>
+        <v>0.1702445562611237</v>
       </c>
       <c r="C11">
-        <v>0.1080549184900514</v>
+        <v>0.1065676429874096</v>
       </c>
       <c r="D11">
-        <v>0.1149042335585446</v>
+        <v>0.1115993935532069</v>
       </c>
       <c r="E11">
-        <v>0.09708361743011219</v>
+        <v>0.1038210542506207</v>
       </c>
       <c r="F11">
-        <v>0.1004152978367322</v>
+        <v>0.0805519544725451</v>
       </c>
       <c r="G11">
-        <v>0.0821452922581045</v>
+        <v>0.05969985278284371</v>
       </c>
       <c r="H11">
-        <v>0.06886505919543792</v>
+        <v>0.1102370855397596</v>
       </c>
       <c r="I11">
-        <v>0.0579247505113742</v>
+        <v>0.06657731097976313</v>
       </c>
       <c r="J11">
-        <v>0.05490299386350957</v>
+        <v>0.05110852321416801</v>
       </c>
       <c r="K11">
-        <v>0.03650901878137978</v>
+        <v>0.03829843334578453</v>
       </c>
       <c r="L11">
-        <v>0.02807909254323436</v>
+        <v>0.02623541561380765</v>
       </c>
       <c r="M11">
-        <v>0.02669993181677307</v>
+        <v>0.02537847992792951</v>
       </c>
       <c r="N11">
-        <v>0.01207153040352073</v>
+        <v>0.01981938432466876</v>
       </c>
       <c r="O11">
-        <v>0.01667389822103763</v>
+        <v>0.01680912306914812</v>
       </c>
       <c r="P11">
-        <v>0.02112130415917684</v>
+        <v>0.009909692162334382</v>
       </c>
       <c r="Q11">
-        <v>0.002618855761482675</v>
+        <v>0.001669925951967656</v>
       </c>
       <c r="R11">
-        <v>0.0007128246451372963</v>
+        <v>0.0009228538155610732</v>
       </c>
       <c r="S11">
-        <v>0.0006818322692617616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>0.1702445562611237</v>
-      </c>
-      <c r="C12">
-        <v>0.1065676429874096</v>
-      </c>
-      <c r="D12">
-        <v>0.1115993935532069</v>
-      </c>
-      <c r="E12">
-        <v>0.1038210542506207</v>
-      </c>
-      <c r="F12">
-        <v>0.1102370855397596</v>
-      </c>
-      <c r="G12">
-        <v>0.0805519544725451</v>
-      </c>
-      <c r="H12">
-        <v>0.06657731097976313</v>
-      </c>
-      <c r="I12">
-        <v>0.05969985278284371</v>
-      </c>
-      <c r="J12">
-        <v>0.05110852321416801</v>
-      </c>
-      <c r="K12">
-        <v>0.03829843334578453</v>
-      </c>
-      <c r="L12">
-        <v>0.02623541561380765</v>
-      </c>
-      <c r="M12">
-        <v>0.02537847992792951</v>
-      </c>
-      <c r="N12">
-        <v>0.009909692162334382</v>
-      </c>
-      <c r="O12">
-        <v>0.01680912306914812</v>
-      </c>
-      <c r="P12">
-        <v>0.01981938432466876</v>
-      </c>
-      <c r="Q12">
-        <v>0.001669925951967656</v>
-      </c>
-      <c r="R12">
-        <v>0.0009228538155610732</v>
-      </c>
-      <c r="S12">
         <v>0.0005493177473577817</v>
       </c>
     </row>
@@ -2562,10 +2238,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1652</v>
+        <v>1781</v>
       </c>
       <c r="C2">
-        <v>0.1880264056453449</v>
+        <v>0.1806654493812132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2573,10 +2249,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="C3">
-        <v>0.123491918961985</v>
+        <v>0.1082369649016028</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2584,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>911</v>
+        <v>1065</v>
       </c>
       <c r="C4">
-        <v>0.1036876849533349</v>
+        <v>0.1080340839926963</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2595,54 +2271,54 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>847</v>
+        <v>962</v>
       </c>
       <c r="C5">
-        <v>0.09640336899613021</v>
+        <v>0.09758571718401299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>759</v>
+        <v>929</v>
       </c>
       <c r="C6">
-        <v>0.08638743455497382</v>
+        <v>0.09423818218705619</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>663</v>
+        <v>801</v>
       </c>
       <c r="C7">
-        <v>0.07546096061916685</v>
+        <v>0.08125380401704199</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="C8">
-        <v>0.07238788982472115</v>
+        <v>0.06908094948265368</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>504</v>
+        <v>586</v>
       </c>
       <c r="C9">
-        <v>0.05736398816298657</v>
+        <v>0.05944410630959627</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2650,10 +2326,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="C10">
-        <v>0.05269747325290235</v>
+        <v>0.05660377358490566</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2661,10 +2337,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C11">
-        <v>0.03790120646483041</v>
+        <v>0.03662000405761818</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2672,10 +2348,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="C12">
-        <v>0.02913726382881858</v>
+        <v>0.0310407790626902</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2683,21 +2359,21 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="C13">
-        <v>0.02503983610289096</v>
+        <v>0.0259687563400284</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C14">
-        <v>0.02151149556111996</v>
+        <v>0.02049097179955366</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2705,21 +2381,21 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="C15">
-        <v>0.01536535397222855</v>
+        <v>0.01998376952728748</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C16">
-        <v>0.01138174368313226</v>
+        <v>0.00699939135727328</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2727,10 +2403,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>0.001707261552469838</v>
+        <v>0.002840332724690607</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2738,10 +2414,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0.001138174368313226</v>
+        <v>0.0005072022722661798</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2749,10 +2425,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.0009105394946505805</v>
+        <v>0.0004057618178129438</v>
       </c>
     </row>
   </sheetData>
@@ -2784,32 +2460,32 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1781</v>
+        <v>3484</v>
       </c>
       <c r="C2">
-        <v>0.1806654493812132</v>
+        <v>0.1945281965382468</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1067</v>
+        <v>2034</v>
       </c>
       <c r="C3">
-        <v>0.1082369649016028</v>
+        <v>0.1135678391959799</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1065</v>
+        <v>1828</v>
       </c>
       <c r="C4">
-        <v>0.1080340839926963</v>
+        <v>0.1020658849804578</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2817,54 +2493,54 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>962</v>
+        <v>1799</v>
       </c>
       <c r="C5">
-        <v>0.09758571718401299</v>
+        <v>0.1004466778336125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>929</v>
+        <v>1629</v>
       </c>
       <c r="C6">
-        <v>0.09423818218705619</v>
+        <v>0.09095477386934674</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>801</v>
+        <v>1462</v>
       </c>
       <c r="C7">
-        <v>0.08125380401704199</v>
+        <v>0.08163037409268566</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>681</v>
+        <v>1228</v>
       </c>
       <c r="C8">
-        <v>0.06908094948265368</v>
+        <v>0.06856504745951982</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>586</v>
+        <v>1134</v>
       </c>
       <c r="C9">
-        <v>0.05944410630959627</v>
+        <v>0.06331658291457286</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2872,10 +2548,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>558</v>
+        <v>957</v>
       </c>
       <c r="C10">
-        <v>0.05660377358490566</v>
+        <v>0.05343383584589615</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2883,10 +2559,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>361</v>
+        <v>578</v>
       </c>
       <c r="C11">
-        <v>0.03662000405761818</v>
+        <v>0.03227247347850363</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2894,10 +2570,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="C12">
-        <v>0.0310407790626902</v>
+        <v>0.02869905080960357</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,21 +2581,21 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>256</v>
+        <v>481</v>
       </c>
       <c r="C13">
-        <v>0.0259687563400284</v>
+        <v>0.02685650474595198</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c r="C14">
-        <v>0.02049097179955366</v>
+        <v>0.01870463428252373</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2927,21 +2603,21 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="C15">
-        <v>0.01998376952728748</v>
+        <v>0.01518704634282524</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C16">
-        <v>0.00699939135727328</v>
+        <v>0.006309324399776661</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2949,10 +2625,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>0.002840332724690607</v>
+        <v>0.002010050251256282</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2960,10 +2636,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>0.0005072022722661798</v>
+        <v>0.0008375209380234506</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2971,10 +2647,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0.0004057618178129438</v>
+        <v>0.0006141820212171971</v>
       </c>
     </row>
   </sheetData>
@@ -3006,32 +2682,32 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3484</v>
+        <v>2390</v>
       </c>
       <c r="C2">
-        <v>0.1945281965382468</v>
+        <v>0.1925090616190093</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>2034</v>
+        <v>1381</v>
       </c>
       <c r="C3">
-        <v>0.1135678391959799</v>
+        <v>0.1112364075714861</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1828</v>
+        <v>1371</v>
       </c>
       <c r="C4">
-        <v>0.1020658849804578</v>
+        <v>0.1104309303262183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3039,54 +2715,54 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1799</v>
+        <v>1228</v>
       </c>
       <c r="C5">
-        <v>0.1004466778336125</v>
+        <v>0.09891260571888844</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1629</v>
+        <v>1218</v>
       </c>
       <c r="C6">
-        <v>0.09095477386934674</v>
+        <v>0.09810712847362062</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1462</v>
+        <v>958</v>
       </c>
       <c r="C7">
-        <v>0.08163037409268566</v>
+        <v>0.07716472009665727</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1228</v>
+        <v>878</v>
       </c>
       <c r="C8">
-        <v>0.06856504745951982</v>
+        <v>0.07072090213451469</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1134</v>
+        <v>643</v>
       </c>
       <c r="C9">
-        <v>0.06331658291457286</v>
+        <v>0.0517921868707209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3094,10 +2770,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>957</v>
+        <v>634</v>
       </c>
       <c r="C10">
-        <v>0.05343383584589615</v>
+        <v>0.05106725734997986</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3105,10 +2781,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>578</v>
+        <v>388</v>
       </c>
       <c r="C11">
-        <v>0.03227247347850363</v>
+        <v>0.03125251711639146</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3116,10 +2792,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>514</v>
+        <v>339</v>
       </c>
       <c r="C12">
-        <v>0.02869905080960357</v>
+        <v>0.02730567861457914</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3127,54 +2803,54 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>481</v>
+        <v>337</v>
       </c>
       <c r="C13">
-        <v>0.02685650474595198</v>
+        <v>0.02714458316552557</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="C14">
-        <v>0.01870463428252373</v>
+        <v>0.0220700765203383</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="C15">
-        <v>0.01518704634282524</v>
+        <v>0.01933145388642771</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C16">
-        <v>0.006309324399776661</v>
+        <v>0.005155054369714055</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17">
-        <v>0.002010050251256282</v>
+        <v>0.003060813532017721</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3182,10 +2858,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>0.0008375209380234506</v>
+        <v>0.001610954490535642</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3193,10 +2869,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>0.0006141820212171971</v>
+        <v>0.00112766814337495</v>
       </c>
     </row>
   </sheetData>
@@ -3228,32 +2904,32 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2390</v>
+        <v>5757</v>
       </c>
       <c r="C2">
-        <v>0.1925090616190093</v>
+        <v>0.1830291854772048</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1381</v>
+        <v>3560</v>
       </c>
       <c r="C3">
-        <v>0.1112364075714861</v>
+        <v>0.1131811534304063</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1371</v>
+        <v>3387</v>
       </c>
       <c r="C4">
-        <v>0.1104309303262183</v>
+        <v>0.1076810580530298</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3261,10 +2937,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1228</v>
+        <v>2928</v>
       </c>
       <c r="C5">
-        <v>0.09891260571888844</v>
+        <v>0.09308831945062632</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3272,43 +2948,43 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1218</v>
+        <v>2629</v>
       </c>
       <c r="C6">
-        <v>0.09810712847362062</v>
+        <v>0.08358237426082533</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>958</v>
+        <v>2317</v>
       </c>
       <c r="C7">
-        <v>0.07716472009665727</v>
+        <v>0.07366312710625039</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>878</v>
+        <v>2197</v>
       </c>
       <c r="C8">
-        <v>0.07072090213451469</v>
+        <v>0.0698480320467985</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>643</v>
+        <v>2163</v>
       </c>
       <c r="C9">
-        <v>0.0517921868707209</v>
+        <v>0.06876708844662047</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3316,10 +2992,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>634</v>
+        <v>1898</v>
       </c>
       <c r="C10">
-        <v>0.05106725734997986</v>
+        <v>0.06034208685699752</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3327,10 +3003,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>388</v>
+        <v>1181</v>
       </c>
       <c r="C11">
-        <v>0.03125251711639146</v>
+        <v>0.03754689387677243</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3338,10 +3014,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>339</v>
+        <v>1018</v>
       </c>
       <c r="C12">
-        <v>0.02730567861457914</v>
+        <v>0.0323647230876836</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3349,76 +3025,76 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>337</v>
+        <v>996</v>
       </c>
       <c r="C13">
-        <v>0.02714458316552557</v>
+        <v>0.03166528899345075</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>274</v>
+        <v>671</v>
       </c>
       <c r="C14">
-        <v>0.0220700765203383</v>
+        <v>0.02133273987410186</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>240</v>
+        <v>434</v>
       </c>
       <c r="C15">
-        <v>0.01933145388642771</v>
+        <v>0.01379792713168436</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="C16">
-        <v>0.005155054369714055</v>
+        <v>0.006930756024670948</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C17">
-        <v>0.003060813532017721</v>
+        <v>0.001780377694410886</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>0.001610954490535642</v>
+        <v>0.0008266039295479113</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0.00112766814337495</v>
+        <v>0.0005722642589177847</v>
       </c>
     </row>
   </sheetData>
@@ -3450,76 +3126,76 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5757</v>
+        <v>1918</v>
       </c>
       <c r="C2">
-        <v>0.1830291854772048</v>
+        <v>0.1751758151429354</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3560</v>
+        <v>1273</v>
       </c>
       <c r="C3">
-        <v>0.1131811534304063</v>
+        <v>0.116266325691844</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3387</v>
+        <v>1194</v>
       </c>
       <c r="C4">
-        <v>0.1076810580530298</v>
+        <v>0.1090510548908576</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2928</v>
+        <v>1184</v>
       </c>
       <c r="C5">
-        <v>0.09308831945062632</v>
+        <v>0.1081377294730112</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2629</v>
+        <v>1118</v>
       </c>
       <c r="C6">
-        <v>0.08358237426082533</v>
+        <v>0.1021097817152251</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2317</v>
+        <v>880</v>
       </c>
       <c r="C7">
-        <v>0.07366312710625039</v>
+        <v>0.08037263677048133</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2197</v>
+        <v>660</v>
       </c>
       <c r="C8">
-        <v>0.0698480320467985</v>
+        <v>0.06027947757786099</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3527,10 +3203,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2163</v>
+        <v>568</v>
       </c>
       <c r="C9">
-        <v>0.06876708844662047</v>
+        <v>0.05187688373367431</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3538,10 +3214,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1898</v>
+        <v>547</v>
       </c>
       <c r="C10">
-        <v>0.06034208685699752</v>
+        <v>0.04995890035619691</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3549,10 +3225,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1181</v>
+        <v>334</v>
       </c>
       <c r="C11">
-        <v>0.03754689387677243</v>
+        <v>0.03050506895606905</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3560,10 +3236,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1018</v>
+        <v>324</v>
       </c>
       <c r="C12">
-        <v>0.0323647230876836</v>
+        <v>0.02959174353822267</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3571,65 +3247,65 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>996</v>
+        <v>318</v>
       </c>
       <c r="C13">
-        <v>0.03166528899345075</v>
+        <v>0.02904374828751484</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>671</v>
+        <v>252</v>
       </c>
       <c r="C14">
-        <v>0.02133273987410186</v>
+        <v>0.02301580052972874</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>434</v>
+        <v>179</v>
       </c>
       <c r="C15">
-        <v>0.01379792713168436</v>
+        <v>0.01634852497945018</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="C16">
-        <v>0.006930756024670948</v>
+        <v>0.01379121380948032</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>0.001780377694410886</v>
+        <v>0.002100648461046671</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>0.0008266039295479113</v>
+        <v>0.001643985752123482</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3637,10 +3313,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.0005722642589177847</v>
+        <v>0.0007306603342771029</v>
       </c>
     </row>
   </sheetData>
@@ -3672,10 +3348,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1918</v>
+        <v>3592</v>
       </c>
       <c r="C2">
-        <v>0.1751758151429354</v>
+        <v>0.1765891549088049</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3683,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1273</v>
+        <v>2244</v>
       </c>
       <c r="C3">
-        <v>0.116266325691844</v>
+        <v>0.1103190600265474</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3694,65 +3370,65 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1194</v>
+        <v>2151</v>
       </c>
       <c r="C4">
-        <v>0.1090510548908576</v>
+        <v>0.1057470134211691</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1184</v>
+        <v>2019</v>
       </c>
       <c r="C5">
-        <v>0.1081377294730112</v>
+        <v>0.09925765694901922</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1118</v>
+        <v>1755</v>
       </c>
       <c r="C6">
-        <v>0.1021097817152251</v>
+        <v>0.08627894400471953</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>880</v>
+        <v>1648</v>
       </c>
       <c r="C7">
-        <v>0.08037263677048133</v>
+        <v>0.0810186323189617</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>660</v>
+        <v>1451</v>
       </c>
       <c r="C8">
-        <v>0.06027947757786099</v>
+        <v>0.07133375940219261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>568</v>
+        <v>1343</v>
       </c>
       <c r="C9">
-        <v>0.05187688373367431</v>
+        <v>0.06602428592497911</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3760,10 +3436,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>547</v>
+        <v>1135</v>
       </c>
       <c r="C10">
-        <v>0.04995890035619691</v>
+        <v>0.05579863330219753</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3771,87 +3447,87 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>334</v>
+        <v>691</v>
       </c>
       <c r="C11">
-        <v>0.03050506895606905</v>
+        <v>0.03397079789587532</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>324</v>
+        <v>662</v>
       </c>
       <c r="C12">
-        <v>0.02959174353822267</v>
+        <v>0.03254510594366058</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>318</v>
+        <v>622</v>
       </c>
       <c r="C13">
-        <v>0.02904374828751484</v>
+        <v>0.03057863428543336</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>252</v>
+        <v>404</v>
       </c>
       <c r="C14">
-        <v>0.02301580052972874</v>
+        <v>0.01986136374809498</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="C15">
-        <v>0.01634852497945018</v>
+        <v>0.01440440489651443</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="C16">
-        <v>0.01379121380948032</v>
+        <v>0.01322452190157809</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>0.002100648461046671</v>
+        <v>0.001573177326581781</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>0.001643985752123482</v>
+        <v>0.0007865886632908903</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3859,10 +3535,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>0.0007306603342771029</v>
+        <v>0.0006882650803795291</v>
       </c>
     </row>
   </sheetData>
@@ -3894,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>814</v>
+        <v>5858</v>
       </c>
       <c r="C2">
-        <v>0.1856751824817518</v>
+        <v>0.1783745927346914</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3905,10 +3581,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>515</v>
+        <v>3737</v>
       </c>
       <c r="C3">
-        <v>0.1174726277372263</v>
+        <v>0.1137906884686824</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3916,10 +3592,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>440</v>
+        <v>3704</v>
       </c>
       <c r="C4">
-        <v>0.1003649635036496</v>
+        <v>0.1127858469595932</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3927,10 +3603,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>412</v>
+        <v>3359</v>
       </c>
       <c r="C5">
-        <v>0.09397810218978102</v>
+        <v>0.1022806857282056</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3938,21 +3614,21 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>373</v>
+        <v>2732</v>
       </c>
       <c r="C6">
-        <v>0.08508211678832117</v>
+        <v>0.08318869705550988</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>330</v>
+        <v>2676</v>
       </c>
       <c r="C7">
-        <v>0.07527372262773722</v>
+        <v>0.08148351146432813</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3960,32 +3636,32 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>328</v>
+        <v>2183</v>
       </c>
       <c r="C8">
-        <v>0.07481751824817519</v>
+        <v>0.06647178831338875</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>292</v>
+        <v>2177</v>
       </c>
       <c r="C9">
-        <v>0.0666058394160584</v>
+        <v>0.0662890898571907</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>258</v>
+        <v>1647</v>
       </c>
       <c r="C10">
-        <v>0.05885036496350365</v>
+        <v>0.05015072622636339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3993,43 +3669,43 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>151</v>
+        <v>1193</v>
       </c>
       <c r="C11">
-        <v>0.03444343065693431</v>
+        <v>0.03632654304071131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>144</v>
+        <v>910</v>
       </c>
       <c r="C12">
-        <v>0.03284671532846715</v>
+        <v>0.02770926585670351</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>142</v>
+        <v>848</v>
       </c>
       <c r="C13">
-        <v>0.03239051094890511</v>
+        <v>0.02582138180932371</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>111</v>
+        <v>696</v>
       </c>
       <c r="C14">
-        <v>0.02531934306569343</v>
+        <v>0.02119302091897323</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4037,21 +3713,21 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="C15">
-        <v>0.01094890510948905</v>
+        <v>0.01906153892999604</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>351</v>
       </c>
       <c r="C16">
-        <v>0.004105839416058394</v>
+        <v>0.01068785968758564</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4059,32 +3735,32 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>0.0006843065693430657</v>
+        <v>0.002283730702475564</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>0.0006843065693430657</v>
+        <v>0.001339788678785664</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>0.0004562043795620438</v>
+        <v>0.0007612435674918547</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +3792,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5858</v>
+        <v>11005</v>
       </c>
       <c r="C2">
-        <v>0.1783745927346914</v>
+        <v>0.1705355482551292</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4127,10 +3803,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3737</v>
+        <v>7415</v>
       </c>
       <c r="C3">
-        <v>0.1137906884686824</v>
+        <v>0.1149042335585446</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4138,65 +3814,65 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3704</v>
+        <v>6973</v>
       </c>
       <c r="C4">
-        <v>0.1127858469595932</v>
+        <v>0.1080549184900514</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>3359</v>
+        <v>6480</v>
       </c>
       <c r="C5">
-        <v>0.1022806857282056</v>
+        <v>0.1004152978367322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2732</v>
+        <v>6265</v>
       </c>
       <c r="C6">
-        <v>0.08318869705550988</v>
+        <v>0.09708361743011219</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2676</v>
+        <v>5301</v>
       </c>
       <c r="C7">
-        <v>0.08148351146432813</v>
+        <v>0.0821452922581045</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>2183</v>
+        <v>4444</v>
       </c>
       <c r="C8">
-        <v>0.06647178831338875</v>
+        <v>0.06886505919543792</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2177</v>
+        <v>3738</v>
       </c>
       <c r="C9">
-        <v>0.0662890898571907</v>
+        <v>0.0579247505113742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4204,10 +3880,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1647</v>
+        <v>3543</v>
       </c>
       <c r="C10">
-        <v>0.05015072622636339</v>
+        <v>0.05490299386350957</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4215,43 +3891,43 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1193</v>
+        <v>2356</v>
       </c>
       <c r="C11">
-        <v>0.03632654304071131</v>
+        <v>0.03650901878137978</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>910</v>
+        <v>1812</v>
       </c>
       <c r="C12">
-        <v>0.02770926585670351</v>
+        <v>0.02807909254323436</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>848</v>
+        <v>1723</v>
       </c>
       <c r="C13">
-        <v>0.02582138180932371</v>
+        <v>0.02669993181677307</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>696</v>
+        <v>1363</v>
       </c>
       <c r="C14">
-        <v>0.02119302091897323</v>
+        <v>0.02112130415917684</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4259,21 +3935,21 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>626</v>
+        <v>1076</v>
       </c>
       <c r="C15">
-        <v>0.01906153892999604</v>
+        <v>0.01667389822103763</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>351</v>
+        <v>779</v>
       </c>
       <c r="C16">
-        <v>0.01068785968758564</v>
+        <v>0.01207153040352073</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4281,32 +3957,32 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="C17">
-        <v>0.002283730702475564</v>
+        <v>0.002618855761482675</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>0.001339788678785664</v>
+        <v>0.0007128246451372963</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>0.0007612435674918547</v>
+        <v>0.0006818322692617616</v>
       </c>
     </row>
   </sheetData>
